--- a/frontend/mapping/plan_tests_3.xlsx
+++ b/frontend/mapping/plan_tests_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\GitHub\p5\frontend\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669F26F-7B04-479F-92D8-7663E66DB156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B570358-319E-4601-823B-46D5A6EB2DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16CB7D35-3DD2-412C-9FEC-88DEC5ED953D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Résultat à obtenir</t>
   </si>
@@ -83,9 +83,6 @@
     <t>En passant un prix, on s'assure du bon formatage du prix pour chaque produit</t>
   </si>
   <si>
-    <t>formatPriceBis</t>
-  </si>
-  <si>
     <t>form.js</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>En passant une id, on s'assure qu'on obtient bien ce qui est disponible dans le local storage</t>
   </si>
   <si>
-    <t>En passant une id et une value, on s'assure d'effectuer une sauvegarde conforme dans le local storage</t>
-  </si>
-  <si>
     <t>non</t>
   </si>
   <si>
@@ -146,19 +140,25 @@
     <t>cleartCartConfirm</t>
   </si>
   <si>
-    <t>En passant un teddy on s'assure de créer des divs</t>
-  </si>
-  <si>
-    <t>En passant un produit on s'assure de créer des divs</t>
-  </si>
-  <si>
     <t>En passant un produit, on s'assure de créer un tableau</t>
   </si>
   <si>
-    <t>En passant une couleur et une quantité, on s'assure : (1) de récupérer ces informations (2) et  de créer un objet comportant les informations à sauvegarder au local storage</t>
-  </si>
-  <si>
     <t>productSelected</t>
+  </si>
+  <si>
+    <t>En passant un teddy on s'assure de générer du html</t>
+  </si>
+  <si>
+    <t>En passant un produit on s'assure de générer du html</t>
+  </si>
+  <si>
+    <t>En passant une id et une value, on s'assure d'effectuer une sauvegarde dans le local storage</t>
+  </si>
+  <si>
+    <t>En passant une couleur et une quantité, on s'assure de récupérer ces informations</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19773466-3432-496F-B485-06B9F9E3B71C}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -632,13 +632,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="143.85546875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -663,10 +663,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -691,10 +691,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -708,229 +708,224 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
@@ -975,40 +970,40 @@
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
@@ -1022,21 +1017,9 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{2028D164-5DCA-489E-BD88-0CE41A75978E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
     <sortCondition descending="1" ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/frontend/mapping/plan_tests_3.xlsx
+++ b/frontend/mapping/plan_tests_3.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\GitHub\p5\frontend\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B570358-319E-4601-823B-46D5A6EB2DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB42367-E4D3-4789-A78C-8B60A1E9F98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16CB7D35-3DD2-412C-9FEC-88DEC5ED953D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan_tests" sheetId="1" r:id="rId1"/>
+    <sheet name="index.js" sheetId="2" r:id="rId2"/>
+    <sheet name="product.js" sheetId="3" r:id="rId3"/>
+    <sheet name="shoppingcart.js" sheetId="4" r:id="rId4"/>
+    <sheet name="confirm.js" sheetId="5" r:id="rId5"/>
+    <sheet name="helper.js" sheetId="6" r:id="rId6"/>
+    <sheet name="form.js" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">plan_tests!$A$1:$D$1</definedName>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="133">
   <si>
     <t>Résultat à obtenir</t>
   </si>
@@ -68,21 +74,12 @@
     <t>addToCart</t>
   </si>
   <si>
-    <t>En passant un produit, on s'assure que la sauvegarde du produit sélectionné se fasse correctement dans le local storage</t>
-  </si>
-  <si>
     <t>shoppingcart.js</t>
   </si>
   <si>
     <t>helper.js</t>
   </si>
   <si>
-    <t>formatPrice</t>
-  </si>
-  <si>
-    <t>En passant un prix, on s'assure du bon formatage du prix pour chaque produit</t>
-  </si>
-  <si>
     <t>form.js</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>non</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>En passant l'url de l'api, on s'asssure d'obtenir une réponse</t>
   </si>
   <si>
@@ -146,26 +140,753 @@
     <t>productSelected</t>
   </si>
   <si>
-    <t>En passant un teddy on s'assure de générer du html</t>
-  </si>
-  <si>
-    <t>En passant un produit on s'assure de générer du html</t>
-  </si>
-  <si>
     <t>En passant une id et une value, on s'assure d'effectuer une sauvegarde dans le local storage</t>
   </si>
   <si>
     <t>En passant une couleur et une quantité, on s'assure de récupérer ces informations</t>
   </si>
   <si>
-    <t>?</t>
+    <t>On rappelle à l'utilisateur la nécessité de personnaliser le produit</t>
+  </si>
+  <si>
+    <t>On donne la possibilité à l'utilisateur de choisir un autre produit ou de passer sa commande</t>
+  </si>
+  <si>
+    <t>On demande confirmation à l'utilisateur pour vider le panier</t>
+  </si>
+  <si>
+    <t>On s'assure que les champs remplis par l'utilisateur soit conforme à ce qui est attendu</t>
+  </si>
+  <si>
+    <t>1. Récupération des fiches produits via l'api (id, color, name, description, price)</t>
+  </si>
+  <si>
+    <t>2. Création d'une méthode pour ajouter les fiches produits sur la page index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; On crée les balises HTML souhaitées en y intégrant les caractéristiques des fiches produits (id, color, name, description, price);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; Le bouton sélectionner, renvoyant à la page produit, contient l'id du produit sélectionné dans l'url;</t>
+  </si>
+  <si>
+    <t>1. Déclaration d'une variable qui va permettre de rechercher l'id du produit dans l'url en retournant la première valeur associée au paramètre de recherche donné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - La quantité est générée de manière "statique" avec une possibilité de 1 à 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Les couleurs disponibles provenant de l'api sont ajoutées au moyen d'une boucle qui va générer les options de personnalisation du produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - De sauvegarder le produit dans le localstorage;</t>
+  </si>
+  <si>
+    <t>4. Ajout d'une fonction qui permet, au clic, de sauvegarder l'article dans le panier via le localstorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; Création de deux variables permettant de récupérer la valeur concernant les choix "couleur" et "quantité" de l'utilisateur :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Ajout d'une fonction qui permet  préparer la sauvegarde à faire dans le localstorage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; On déclare une variable article qui permet de vérifier si un même article est déjà ajouté et d'assurer l'addition des quantités (si id et color sont égales) puis on réalise un push du produit à ajouter au cart;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; Une fois la condition ci-dessus vérifiée un setitem permet d'envoyer le nouveau produit cliqué au localstorage (ainsi que ceux éventuellement déjà ajoutés).</t>
+  </si>
+  <si>
+    <t>3. Récupération du produit ciblé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - De mettre à jour le nombre de produits au panier sur le badge du cart dans le header.</t>
+  </si>
+  <si>
+    <t>1. Déclaration d'une variable pour avoir accès au contenu du local storage</t>
+  </si>
+  <si>
+    <t>2. Déclaration d'une variable qui intialise un montant à payer à 0</t>
+  </si>
+  <si>
+    <t>3. Création d'une boucle pour ajouter chaque produit dans le tableau récapitulatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; Initialisation d'une variable pour procéder à la multiplication entre la quantité et le prix par produit (calcul pour chacune des lignes du tableau);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; Ajout d'un montant total à payer en fin de tableau, initialisé en amont à 0, on additionne les montants par ligne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; On initialise un tableau vide pour récupérer les id des produits disponibles dans le localstorage;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; On intialise une variable devant comporter les infos contacts attendus par l'api ainsi qu'un array comportant les id des teddies;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; On initialise une nouvelle variable qui va récupérer les informations qu'on souhaite afficher sur la page de confirmation de commande (prénom, orderId et prix);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; On renvoie vers la page de confirmation.</t>
+  </si>
+  <si>
+    <t>4. Envoi de l'order à l'api et redirection vers la page de confirmation</t>
+  </si>
+  <si>
+    <t>confirm.js</t>
+  </si>
+  <si>
+    <t>1. On déclare une variable pour avoir accès au contenu du localstorage;</t>
+  </si>
+  <si>
+    <t>2. On affiche chacune des informations récupérées sur la page html dédiée à la confirmation;</t>
+  </si>
+  <si>
+    <t>Fonctions dédiées à la gestion du local storage</t>
+  </si>
+  <si>
+    <t>Fonctions dédiées aux choix de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Fonctions dédiées à la mise à jour du badge présent dans le header</t>
+  </si>
+  <si>
+    <t>Fonctions dédiées à la suppression des éléments présents au local storage</t>
+  </si>
+  <si>
+    <t>Fonctions dédiées au formatage du prix</t>
+  </si>
+  <si>
+    <t>Fonction dédiée au contrôle du panier</t>
+  </si>
+  <si>
+    <t>=&gt; sauvegarde dans le local storage l'id donnée</t>
+  </si>
+  <si>
+    <t>=&gt; va chercher la valeur du localStorage id</t>
+  </si>
+  <si>
+    <t>=&gt; comptabilise l'item ajouté au panier</t>
+  </si>
+  <si>
+    <t>=&gt; met à jour le nombre d'item à afficher au badge</t>
+  </si>
+  <si>
+    <t>=&gt; rappelle à l'utilisateur la nécessité de choisir une couleur</t>
+  </si>
+  <si>
+    <t>=&gt; demande à l'utilisateur de choisir entre 2 options : choisir une autre teddy ou passer sa commande</t>
+  </si>
+  <si>
+    <t>=&gt; contrôle si au moins un item est présent au panier pour passer une commande</t>
+  </si>
+  <si>
+    <t>=&gt; demande à l'utilisateur de choisir entre 2 options : confirmer la suppression du panier ou annuler</t>
+  </si>
+  <si>
+    <t>=&gt; vide le panier automatiquement</t>
+  </si>
+  <si>
+    <t>formatPriceProduct</t>
+  </si>
+  <si>
+    <t>formatPriceTotalProduct</t>
+  </si>
+  <si>
+    <t>=&gt; change le format du prix des produits</t>
+  </si>
+  <si>
+    <t>=&gt; change le format du prix du total à payer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; Utilisation d'une fonction </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retrieveContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pour la récupération des éléments relatifs aux produits;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; Cette boucle appelle la méthode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">createArticleHtml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dédiée à l'ajout des fiches produits;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; le bouton "Ajouter au panier" contient une fonction "onClick"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> saveToCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">qui va permettre : </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; Une fois récupérées celle-ci sont passées en paramètre dans la méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>productSelected</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; On appelle la méthode</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> updateBadge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> resfreshBadge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> afin de mettre à jour le badge du cart dans le header.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. Ajout d'une fonction qui permet de faire un setitem du produit au localstorage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>addToCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; Cette boucle appelle la méthode</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> createArticleHtml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dédiée à l'ajout du tableau récapitulatif pour chacun des produits;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; On contrôle si la panier est vide ET si le formulaire est rempli correctement avant validation de l'order (appel des méthodes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">checkCart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> checkForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; Création d'une fonction</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> retrieveContent</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qui va envoyer l'order à l'api;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. On fait appel à la méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cleartCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qui permet de vider le panier sachant que la commande est confirmée;</t>
+    </r>
+  </si>
+  <si>
+    <t>Fonctions dédiées au contrôle du formulaire</t>
+  </si>
+  <si>
+    <t>checkFieldIdentity</t>
+  </si>
+  <si>
+    <t>checkFieldEmail</t>
+  </si>
+  <si>
+    <t>checkFieldAddress</t>
+  </si>
+  <si>
+    <t>checkFieldZipCode</t>
+  </si>
+  <si>
+    <t>=&gt; contrôle que le nom et le prénom comporte au minimum 2 caractères et qu'il s'agisse d'une string</t>
+  </si>
+  <si>
+    <t>=&gt; contrôle le format de l'email</t>
+  </si>
+  <si>
+    <t>=&gt; contrôle que le champ soit rempli par l'utilisateur</t>
+  </si>
+  <si>
+    <t>=&gt; contrôle que le code postale soit de nature number et qu'il ne soit pas &gt; à 5 chiffres</t>
+  </si>
+  <si>
+    <t>UX =</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit pouvoir vider son panier,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit pouvoir finaliser sa commande,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit pouvoir retourner à l'accueil,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; On crée une boucle afin d'ajouter chacune des fiches produits disponibles dans l'api;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Déclaration d'une variable "product = null" qui va permettre d'utiliser les données de l'api en dehors de la fonction </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retrieveContent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; Utilisation de la méthode</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> retrieveContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dédiée à l'ajout de la fiche produit sélectionnée par l'utilisateur;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; Intégration des options offertes à l'utilisateur lui permettant de choisir une quantité et une couleur : </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; Vérification si l'utilisateur a bien choisi une couleur ET une quantité (recours aux méthodes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alertUserChoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confirmChoice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    =&gt; On passe en paramètre le produit à ajouter à la méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>addToCart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qui va créer la sauvegarde dans le localstorage;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; Création d'un objet qui va comporter l'ensemble des informations que l'on souhaite sauvegarder dans le localstorage;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    =&gt; On vérifie au préalable que le localtstorage est vide, si vide on crée un array vide, sinon on parse les données qu'on récupère du localtstorage;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit bénéficier d'un récapitulatif de sa commande,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit répondre à certaines exigences lors de la saisie des informations dans le formulaire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit pouvoir consulter la fiche produit sélectionnée,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit être obligé de personnaliser son produit (couleur et quantité),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit pouvoir retourner sur la page d'accueil ou passer sa commande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit être en mesure de consulter chaque fiche produit récupérée depuis l'API,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit pouvoir choisir une produit.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. On fait appel à la méthode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refreshBadge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour effectuer un rafraîchissement du nombre d'item au badge.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit obtenir l'id de l'order passé et le montant total à payer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'utilisateur doit pouvoir revenir à l'accueil.</t>
+  </si>
+  <si>
+    <t>En passant un teddy on s'assure de générer une div</t>
+  </si>
+  <si>
+    <t>En passant un produit on s'assure de générer une div</t>
+  </si>
+  <si>
+    <t>En passant un prix, on s'assure du bon formatage du prix</t>
+  </si>
+  <si>
+    <t>En passant un produit, on s'assure d'effectuer un setitem</t>
+  </si>
+  <si>
+    <t>On s'assure de récupérer les valeurs déterminées</t>
+  </si>
+  <si>
+    <t>On s'assure de comptabiliser les items ajoutées</t>
+  </si>
+  <si>
+    <t>On s'assure que le compteur se mette à jour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +958,58 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0066"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +1022,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -260,11 +1037,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,9 +1144,71 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,22 +1525,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19773466-3432-496F-B485-06B9F9E3B71C}">
-  <dimension ref="A1:E36"/>
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="143.85546875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -652,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -663,10 +1566,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -677,10 +1580,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -691,10 +1594,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -705,41 +1608,38 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
@@ -750,248 +1650,258 @@
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>29</v>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="10"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
@@ -1010,12 +1920,6 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{2028D164-5DCA-489E-BD88-0CE41A75978E}"/>
@@ -1025,4 +1929,1528 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593CFD94-0EF3-4A6D-BBC0-87E70244B491}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="B1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF762C86-7D06-4E78-8C19-401FF2F0256A}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="B1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="35" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B35" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="B38" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1054325B-4CB9-4A05-823E-1B77F29F608C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="B1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+    </row>
+    <row r="24" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AD61A8-4054-4F1F-8F09-AA7EBC31DC69}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+    </row>
+    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
+      <c r="B12" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+    </row>
+    <row r="13" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+      <c r="B13" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
+      <c r="B14" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F949D6-533B-4B89-8381-B719CC9A4DA3}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="29"/>
+    <col min="2" max="2" width="12" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5685E9-B158-40D6-B74A-CCB0D44FD7C6}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/frontend/mapping/plan_tests_3.xlsx
+++ b/frontend/mapping/plan_tests_3.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\GitHub\p5\frontend\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB42367-E4D3-4789-A78C-8B60A1E9F98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAABEC8-3E42-49D2-A36B-8FA778A27904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16CB7D35-3DD2-412C-9FEC-88DEC5ED953D}"/>
   </bookViews>
   <sheets>
     <sheet name="plan_tests" sheetId="1" r:id="rId1"/>
-    <sheet name="index.js" sheetId="2" r:id="rId2"/>
-    <sheet name="product.js" sheetId="3" r:id="rId3"/>
-    <sheet name="shoppingcart.js" sheetId="4" r:id="rId4"/>
-    <sheet name="confirm.js" sheetId="5" r:id="rId5"/>
-    <sheet name="helper.js" sheetId="6" r:id="rId6"/>
-    <sheet name="form.js" sheetId="7" r:id="rId7"/>
+    <sheet name="app_mapping" sheetId="8" r:id="rId2"/>
+    <sheet name="index.js" sheetId="2" r:id="rId3"/>
+    <sheet name="product.js" sheetId="3" r:id="rId4"/>
+    <sheet name="shoppingcart.js" sheetId="4" r:id="rId5"/>
+    <sheet name="confirm.js" sheetId="5" r:id="rId6"/>
+    <sheet name="helper.js" sheetId="6" r:id="rId7"/>
+    <sheet name="form.js" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">plan_tests!$A$1:$D$1</definedName>
@@ -1106,7 +1107,6 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1159,6 +1159,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,34 +1199,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,6 +1215,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC0066"/>
       <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
@@ -1226,6 +1228,623 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261539</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Une image contenant capture d’écran&#10;&#10;Description générée automatiquement">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1287D8-315C-419B-8E52-969F930A8DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="123825"/>
+          <a:ext cx="1318814" cy="5453622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>752127</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="Une image contenant capture d’écran, moniteur, assis, cité&#10;&#10;Description générée automatiquement">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB06161-A40B-4114-8D16-D6108128F4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9505950" y="914400"/>
+          <a:ext cx="8010177" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flèche : droite rayée 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1080162-0F3B-48C1-965A-D211336C9796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933576" y="2638425"/>
+          <a:ext cx="742950" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CC0066"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flèche : droite rayée 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC1E48E-CD83-4504-8E32-65F7E2EE9359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620126" y="2657475"/>
+          <a:ext cx="742950" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CC0066"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30EF31B-4C0A-42D3-B788-60B781E6415B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="542925"/>
+          <a:ext cx="1314450" cy="5076825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="47625">
+          <a:solidFill>
+            <a:srgbClr val="CC0066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>58811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397F17E7-50F1-4333-86C7-63AA74BD4608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724149" y="921788"/>
+          <a:ext cx="5724525" cy="5042523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581028</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Parenthèse fermante 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E94A21-0FAF-4ABB-AFAB-8E2B8DB2E961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8834441" y="-5319715"/>
+          <a:ext cx="228598" cy="12220577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="CC0066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="ZoneTexte 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040FDC3D-FFD8-4A90-AB60-B65D65F94A4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="238125"/>
+          <a:ext cx="5581650" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="CC0066"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retour</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="CC0066"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> accueil avec ou sans conditions</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="CC0066"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Parenthèse fermante 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D8C41F-1728-4733-8830-502C74910E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8886824" y="-1809750"/>
+          <a:ext cx="142877" cy="15763877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="CC0066"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connecteur droit avec flèche 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE12F3E4-D403-4683-A300-D7A97EF3E61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1076325" y="5715000"/>
+          <a:ext cx="9525" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="CC0066"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1534,392 +2153,392 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="143.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="143.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="31" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="31" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="41"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="41"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{2028D164-5DCA-489E-BD88-0CE41A75978E}"/>
@@ -1932,172 +2551,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9680AE-8EC3-4BD3-B55C-5770E552D211}">
+  <sheetPr>
+    <tabColor rgb="FFCC0066"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593CFD94-0EF3-4A6D-BBC0-87E70244B491}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="27" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="27" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2106,626 +2743,233 @@
     <mergeCell ref="B2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF762C86-7D06-4E78-8C19-401FF2F0256A}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
   <dimension ref="B1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="35" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="27" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="27" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="27" t="s">
         <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1054325B-4CB9-4A05-823E-1B77F29F608C}">
-  <sheetPr>
-    <tabColor rgb="FFFF0066"/>
-  </sheetPr>
-  <dimension ref="B1:P29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-    </row>
-    <row r="24" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B27" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B29" s="36" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2737,445 +2981,392 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AD61A8-4054-4F1F-8F09-AA7EBC31DC69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1054325B-4CB9-4A05-823E-1B77F29F608C}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="B1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-    </row>
-    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="36" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-    </row>
-    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
+    </row>
+    <row r="25" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="27" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3186,264 +3377,719 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AD61A8-4054-4F1F-8F09-AA7EBC31DC69}">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F949D6-533B-4B89-8381-B719CC9A4DA3}">
   <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="29"/>
-    <col min="2" max="2" width="12" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="11.42578125" style="22"/>
+    <col min="2" max="2" width="12" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="25" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5685E9-B158-40D6-B74A-CCB0D44FD7C6}">
   <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>103</v>
       </c>
     </row>

--- a/frontend/mapping/plan_tests_3.xlsx
+++ b/frontend/mapping/plan_tests_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\GitHub\p5\frontend\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAABEC8-3E42-49D2-A36B-8FA778A27904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C314E-B319-4FCB-8A9D-02622CD94527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16CB7D35-3DD2-412C-9FEC-88DEC5ED953D}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>On demande confirmation à l'utilisateur pour vider le panier</t>
   </si>
   <si>
-    <t>On s'assure que les champs remplis par l'utilisateur soit conforme à ce qui est attendu</t>
-  </si>
-  <si>
     <t>1. Récupération des fiches produits via l'api (id, color, name, description, price)</t>
   </si>
   <si>
@@ -881,6 +878,9 @@
   </si>
   <si>
     <t>On s'assure que le compteur se mette à jour</t>
+  </si>
+  <si>
+    <t>On s'assure que les champs remplis par l'utilisateur soient conforme à ce qui est attendu</t>
   </si>
 </sst>
 </file>
@@ -1181,6 +1181,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,7 +1206,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2161,16 +2161,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2269,7 +2269,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2291,13 +2291,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2305,13 +2305,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2395,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2451,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2581,20 +2581,20 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -2725,17 +2725,17 @@
     </row>
     <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2762,20 +2762,20 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2799,56 +2799,56 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -2860,21 +2860,21 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -2886,35 +2886,35 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -2926,50 +2926,50 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
     </row>
     <row r="35" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B35" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B36" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B37" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B38" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2995,20 +2995,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -3340,32 +3340,32 @@
     </row>
     <row r="24" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B26" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B27" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B29" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3391,16 +3391,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F4" s="22"/>
@@ -3428,7 +3428,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3450,7 +3450,7 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -3472,7 +3472,7 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -3494,7 +3494,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -3556,7 +3556,7 @@
     <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -3578,7 +3578,7 @@
     <row r="13" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -3600,7 +3600,7 @@
     <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -3847,20 +3847,20 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -3884,25 +3884,25 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="25" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -3911,26 +3911,26 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="25" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -3939,17 +3939,17 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="24"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -3958,63 +3958,63 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="24"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="25" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="25" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="25" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="25" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="25" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4035,20 +4035,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4057,40 +4057,40 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
